--- a/medicine/Sexualité et sexologie/Le_Doux_Parfum_d'Eros/Le_Doux_Parfum_d'Eros.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Doux_Parfum_d'Eros/Le_Doux_Parfum_d'Eros.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Doux_Parfum_d%27Eros</t>
+          <t>Le_Doux_Parfum_d'Eros</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Doux Parfum d'Eros (エロスは甘き香り, Erosu wa amaki kaori?) est un film érotique japonais réalisé par Toshiya Fujita, sorti en 1973.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Doux_Parfum_d%27Eros</t>
+          <t>Le_Doux_Parfum_d'Eros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Apprenti photographe, Koichi rencontre Etsuko, une styliste de mode habitant une ancienne base militaire transformée en quartier résidentiel. Après l’avoir repoussé, la jeune fille finit par s’attacher à lui et l’invite à s’installer chez elle. Ce dernier en profite pour vivre à son crochet. Un jour, un couple d’amis d’Etsuko, sans travail comme Koichi, décide également de vivre chez elle. Le quatuor se coupe peu à peu du monde extérieur pour vivre en petite communauté et pour passer leurs journées à faire l'amour. À travers le sexe, ils recréent un monde sans contraintes, régi par leurs propres règles libertaires et qui s'oppose à la société fondée sur des normes sociales pesantes. Alors qu'Etsuko travaille pour subvenir à leurs besoins, les deux mâles, dont Koichi, se rêvent artistes mais finissent par vilement exploiter des photos prises lors de leurs ébats... 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Doux_Parfum_d%27Eros</t>
+          <t>Le_Doux_Parfum_d'Eros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : エロスは甘き香り (Erosu wa amaki kaori?)
-Titre français : Le Doux Parfum d'Eros[1]
+Titre français : Le Doux Parfum d'Eros
 Réalisation : Toshiya Fujita
 Scénario : Atsushi Yamatoya
 Montage : Osamu Inoue
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Doux_Parfum_d%27Eros</t>
+          <t>Le_Doux_Parfum_d'Eros</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hiroko Isayama : Yukie
 Kaori Momoi : Etsuko
